--- a/data/trans_orig/P15D$nada-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15D$nada-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1087</v>
+        <v>1133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9189</v>
+        <v>9452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1692217325509374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04317031638608489</v>
+        <v>0.04501896133479336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3650081274173477</v>
+        <v>0.375453800770254</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2695</v>
+        <v>2721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12320</v>
+        <v>12114</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.14108890335591</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05919581142616583</v>
+        <v>0.05977371982820701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2705998768581415</v>
+        <v>0.2660746009293409</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -786,19 +786,19 @@
         <v>10683</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6111</v>
+        <v>5707</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18175</v>
+        <v>17964</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.151105764836606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08643623315736804</v>
+        <v>0.08071649676623323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.257061921496281</v>
+        <v>0.2540750010501964</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>906</v>
+        <v>941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7231</v>
+        <v>7401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1201726068904047</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03600443165828678</v>
+        <v>0.03738958535451051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2872530033483537</v>
+        <v>0.2939762865882102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,19 +836,19 @@
         <v>4521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1156</v>
+        <v>1207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10048</v>
+        <v>10457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09930795448489697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02539358681414446</v>
+        <v>0.02651777947566747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2207022627982895</v>
+        <v>0.2296795529640049</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>7547</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3255</v>
+        <v>3169</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14139</v>
+        <v>14157</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1067369383080306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04604428030270071</v>
+        <v>0.04481625643464899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1999788828015487</v>
+        <v>0.2002341599488555</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>12976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7864</v>
+        <v>8284</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18081</v>
+        <v>17641</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5154414217219547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3123701538275243</v>
+        <v>0.3290608262613347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7182478371032317</v>
+        <v>0.7007697480272801</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -907,19 +907,19 @@
         <v>30544</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23491</v>
+        <v>23153</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35965</v>
+        <v>36180</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6708863243698676</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5159640920330194</v>
+        <v>0.5085494083746522</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7899568555739219</v>
+        <v>0.7946750980320673</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -928,19 +928,19 @@
         <v>43520</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34646</v>
+        <v>35378</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50726</v>
+        <v>51093</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6155392404733204</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4900272159536209</v>
+        <v>0.5003876027479699</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7174635771182042</v>
+        <v>0.7226578054033875</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>4913</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1841</v>
+        <v>1940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10394</v>
+        <v>10251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1951642388367032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07312128741304506</v>
+        <v>0.0770592744810213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4129031251000789</v>
+        <v>0.4072130976550783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>4039</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8976</v>
+        <v>8720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08871681778932537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02140362866186648</v>
+        <v>0.02153682558211618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1971549690357019</v>
+        <v>0.1915324816225248</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -999,19 +999,19 @@
         <v>8952</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4706</v>
+        <v>4112</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15971</v>
+        <v>16094</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.126618056382043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06655418051756019</v>
+        <v>0.05815986163025396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.225889828302437</v>
+        <v>0.2276291710526822</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>20246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13803</v>
+        <v>12747</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29737</v>
+        <v>29224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2579043718601595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1758219823708753</v>
+        <v>0.1623723425314118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3788014133027937</v>
+        <v>0.3722714581630342</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1053,19 +1053,19 @@
         <v>6296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2400</v>
+        <v>1954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11710</v>
+        <v>12050</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1796727446076296</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06847705943922752</v>
+        <v>0.05576638583916418</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3341817004114584</v>
+        <v>0.3438744711790093</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1074,19 +1074,19 @@
         <v>26543</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18640</v>
+        <v>18387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>36497</v>
+        <v>36997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2337605068873435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1641654783847026</v>
+        <v>0.1619346527472473</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3214331318746534</v>
+        <v>0.3258366398443951</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>10525</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5462</v>
+        <v>5778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18195</v>
+        <v>17758</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1340704826139269</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06957381303227186</v>
+        <v>0.07359745298557482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2317794090541158</v>
+        <v>0.226213520632193</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1124,19 +1124,19 @@
         <v>6732</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2832</v>
+        <v>2878</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13612</v>
+        <v>12490</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1921107086362012</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08082638782169324</v>
+        <v>0.08212055357947681</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.388444613716517</v>
+        <v>0.3564168787287074</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -1145,19 +1145,19 @@
         <v>17257</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11143</v>
+        <v>10296</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26440</v>
+        <v>26030</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1519828721331951</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09813646076228165</v>
+        <v>0.0906794174953398</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2328547103974281</v>
+        <v>0.2292430553781026</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>39510</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30018</v>
+        <v>30812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47872</v>
+        <v>49401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.503299006233503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.382381787627029</v>
+        <v>0.3924925866307913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6098104935277189</v>
+        <v>0.6292843413204314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1195,19 +1195,19 @@
         <v>20993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14982</v>
+        <v>14704</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27461</v>
+        <v>26978</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5990729689212498</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4275572500087393</v>
+        <v>0.4196073582254525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7836652054245112</v>
+        <v>0.7698626736749985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -1216,19 +1216,19 @@
         <v>60504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49406</v>
+        <v>50323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71897</v>
+        <v>71576</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5328567912912041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.435117275673337</v>
+        <v>0.4431936334407562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6331980591004313</v>
+        <v>0.6303730552032591</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>8221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3556</v>
+        <v>3476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15616</v>
+        <v>16050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1047261392924106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04529761523677828</v>
+        <v>0.04428211323766511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1989269441292082</v>
+        <v>0.2044478912675519</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5633</v>
+        <v>6125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02914357783491938</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1607450330047625</v>
+        <v>0.1747978280404364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1287,19 +1287,19 @@
         <v>9243</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4755</v>
+        <v>4294</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18271</v>
+        <v>16726</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08139982968825731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04188038677679261</v>
+        <v>0.03781357020230516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1609126246870586</v>
+        <v>0.1473073924458599</v>
       </c>
     </row>
     <row r="12">
@@ -1320,19 +1320,19 @@
         <v>8181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3885</v>
+        <v>3759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13440</v>
+        <v>13050</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4217022782578328</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2002578139072968</v>
+        <v>0.1937429480784085</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6927865695434504</v>
+        <v>0.6726975538527343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1341,19 +1341,19 @@
         <v>2992</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6798</v>
+        <v>7113</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2260850031829754</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06451115502597177</v>
+        <v>0.06578015776891925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5135957514888559</v>
+        <v>0.5374038056213299</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1362,19 +1362,19 @@
         <v>11174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5791</v>
+        <v>5911</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17224</v>
+        <v>17891</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3423686897307909</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1774313830775827</v>
+        <v>0.1811245795186138</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5277643777824608</v>
+        <v>0.5481883404854533</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>2820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7006</v>
+        <v>7606</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1453584424963747</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04448620530687001</v>
+        <v>0.04348519800967281</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3611313974931344</v>
+        <v>0.3920452634852368</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4814</v>
+        <v>4111</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0681939436246423</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3637140890191928</v>
+        <v>0.3106151744924178</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1436,16 +1436,16 @@
         <v>917</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8618</v>
+        <v>8680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1140639844785806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02808658714112409</v>
+        <v>0.02811083922997116</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2640563903495721</v>
+        <v>0.2659736131327784</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>4419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1087</v>
+        <v>1039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10256</v>
+        <v>10635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2277701690005551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05604185801856028</v>
+        <v>0.05353419026488581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5286816493118038</v>
+        <v>0.5482148588175353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1483,19 +1483,19 @@
         <v>9341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5536</v>
+        <v>4837</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12264</v>
+        <v>12299</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7057210531923823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4182272399566848</v>
+        <v>0.3654620096043365</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9265941859958012</v>
+        <v>0.9292050940887863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1504,19 +1504,19 @@
         <v>13760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7887</v>
+        <v>7919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19855</v>
+        <v>19900</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.421605599782935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2416725000388519</v>
+        <v>0.2426351925806321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.608384233287076</v>
+        <v>0.6097469056238488</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>3980</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1066</v>
+        <v>1082</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9256</v>
+        <v>9348</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2051691102452373</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05496527511122768</v>
+        <v>0.05577300805818975</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4771168374903956</v>
+        <v>0.4818389985539656</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>3980</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10800</v>
+        <v>11133</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1219617260076935</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0330204072591898</v>
+        <v>0.03347751634406215</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3309262783242369</v>
+        <v>0.3411244198045402</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>32687</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23870</v>
+        <v>22342</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44343</v>
+        <v>41874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2655842378328501</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1939422300684575</v>
+        <v>0.1815320839086485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3602895246098741</v>
+        <v>0.3402234738514942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1621,19 +1621,19 @@
         <v>15712</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1674949376004987</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>48</v>
@@ -1642,19 +1642,19 @@
         <v>48399</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38043</v>
+        <v>36557</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61297</v>
+        <v>61021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2231587757473505</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1754096104823861</v>
+        <v>0.1685577535267469</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2826283477042482</v>
+        <v>0.2813563759259844</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>16370</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10495</v>
+        <v>9699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25038</v>
+        <v>25442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1330071281393734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08526873387440979</v>
+        <v>0.07880360437150107</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2034343881279127</v>
+        <v>0.2067123141464683</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1692,19 +1692,19 @@
         <v>12156</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1295856803154422</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1713,19 +1713,19 @@
         <v>28526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19627</v>
+        <v>19527</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40792</v>
+        <v>40520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1315272877838212</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09049492133818282</v>
+        <v>0.09003559529541018</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1880831027163374</v>
+        <v>0.186830918338989</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>56905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46381</v>
+        <v>45687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67789</v>
+        <v>68168</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4623522388270693</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3768428770374856</v>
+        <v>0.371205066504221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5507816396693321</v>
+        <v>0.5538676501407658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>58</v>
@@ -1763,19 +1763,19 @@
         <v>60878</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6489744523220928</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -1784,19 +1784,19 @@
         <v>117783</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101883</v>
+        <v>102998</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>132693</v>
+        <v>133496</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5430698463968071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4697622848356307</v>
+        <v>0.474900059923738</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6118178842034363</v>
+        <v>0.615520220945219</v>
       </c>
     </row>
     <row r="19">
@@ -1813,19 +1813,19 @@
         <v>17115</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1390563952007072</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1834,19 +1834,19 @@
         <v>5060</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05394492976196631</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -1855,19 +1855,19 @@
         <v>22175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1022440900720212</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
     </row>
     <row r="20">
@@ -2127,19 +2127,19 @@
         <v>14107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8065</v>
+        <v>8207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22508</v>
+        <v>22188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1885750960171114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1078040909796419</v>
+        <v>0.1097064433414865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3008743564358048</v>
+        <v>0.2966018022301146</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2148,19 +2148,19 @@
         <v>32669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23450</v>
+        <v>24058</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43107</v>
+        <v>44097</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2920388916219401</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2096291694696002</v>
+        <v>0.2150606281447769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3853474627073753</v>
+        <v>0.3941934894183006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2169,19 +2169,19 @@
         <v>46776</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36138</v>
+        <v>36338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58921</v>
+        <v>58707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2505770393865532</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1935914403185001</v>
+        <v>0.1946627469938758</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3156392330047895</v>
+        <v>0.3144919832297866</v>
       </c>
     </row>
     <row r="5">
@@ -2198,19 +2198,19 @@
         <v>6737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2884</v>
+        <v>3026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13151</v>
+        <v>13225</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09006123648959442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03855837870740846</v>
+        <v>0.04044421111562795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1758017521221144</v>
+        <v>0.1767863637904791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -2219,19 +2219,19 @@
         <v>9090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4861</v>
+        <v>4133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16148</v>
+        <v>16291</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08125572224520931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04345404255020891</v>
+        <v>0.03694788200313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1443479506438211</v>
+        <v>0.1456322025453879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -2240,19 +2240,19 @@
         <v>15827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9321</v>
+        <v>9515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23779</v>
+        <v>25658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08478442451563183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04993285848552622</v>
+        <v>0.05096935002351177</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1273857986023531</v>
+        <v>0.1374508911384243</v>
       </c>
     </row>
     <row r="6">
@@ -2269,19 +2269,19 @@
         <v>43094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33301</v>
+        <v>32912</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>51726</v>
+        <v>51641</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5760718196983189</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4451540731254746</v>
+        <v>0.4399613877563087</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6914564803987832</v>
+        <v>0.6903270465419806</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -2290,19 +2290,19 @@
         <v>58173</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47669</v>
+        <v>47614</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67961</v>
+        <v>68207</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5200276206879478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4261301439429815</v>
+        <v>0.4256298377357052</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6075205568207879</v>
+        <v>0.609722715586415</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>94</v>
@@ -2311,19 +2311,19 @@
         <v>101268</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>87618</v>
+        <v>88339</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>115330</v>
+        <v>115220</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5424866488381791</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4693687358994031</v>
+        <v>0.4732287162316896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6178188096422798</v>
+        <v>0.6172285317350691</v>
       </c>
     </row>
     <row r="7">
@@ -2340,19 +2340,19 @@
         <v>10869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5554</v>
+        <v>5565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18913</v>
+        <v>18559</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1452918477949753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07425076964140702</v>
+        <v>0.07438696845642931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2528213974191255</v>
+        <v>0.2480889660362234</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2361,19 +2361,19 @@
         <v>11934</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6574</v>
+        <v>6358</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19783</v>
+        <v>20308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1066777654449027</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05876538991468925</v>
+        <v>0.05684014463669593</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1768423168146465</v>
+        <v>0.1815405791330695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -2382,19 +2382,19 @@
         <v>22802</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14384</v>
+        <v>15167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33257</v>
+        <v>34214</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1221518872596359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07705448864970103</v>
+        <v>0.08125033311294462</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1781564557462771</v>
+        <v>0.1832844445643018</v>
       </c>
     </row>
     <row r="8">
@@ -2415,19 +2415,19 @@
         <v>47436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36205</v>
+        <v>36999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59739</v>
+        <v>60562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2606162377217874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1989136238381546</v>
+        <v>0.2032759606871114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3282121969497316</v>
+        <v>0.3327340175615014</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -2436,19 +2436,19 @@
         <v>33697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24488</v>
+        <v>24172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44695</v>
+        <v>43901</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2963589535201576</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2153720315460388</v>
+        <v>0.2125856155844322</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3930872877017849</v>
+        <v>0.3860992299959252</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -2457,19 +2457,19 @@
         <v>81133</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>66090</v>
+        <v>65608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>96812</v>
+        <v>96188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2743592865796693</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2234892262338889</v>
+        <v>0.2218603632785461</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3273800931351181</v>
+        <v>0.3252704113002437</v>
       </c>
     </row>
     <row r="9">
@@ -2486,19 +2486,19 @@
         <v>11278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5753</v>
+        <v>5563</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19694</v>
+        <v>19632</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06196119970099134</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03160490669174026</v>
+        <v>0.0305614896288326</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1081982167592308</v>
+        <v>0.1078598646797343</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -2507,19 +2507,19 @@
         <v>9928</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4739</v>
+        <v>4946</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17918</v>
+        <v>17307</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08731717169104766</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04168119208379718</v>
+        <v>0.04349941505532414</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1575870836833107</v>
+        <v>0.1522145080726918</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -2528,19 +2528,19 @@
         <v>21206</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12904</v>
+        <v>13401</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31617</v>
+        <v>33012</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07171055293604466</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04363540825692939</v>
+        <v>0.04531806995984261</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1069164807462199</v>
+        <v>0.1116336290106738</v>
       </c>
     </row>
     <row r="10">
@@ -2557,19 +2557,19 @@
         <v>110922</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97635</v>
+        <v>97582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123369</v>
+        <v>124505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6094121226187017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5364170575641729</v>
+        <v>0.5361254031015793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6777977219967165</v>
+        <v>0.6840421530576988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -2578,19 +2578,19 @@
         <v>62701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52208</v>
+        <v>52036</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73873</v>
+        <v>74173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5514448597461753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.459161986471521</v>
+        <v>0.4576440766980183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6496976263583056</v>
+        <v>0.6523431709630121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -2599,19 +2599,19 @@
         <v>173622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>153460</v>
+        <v>156782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>188572</v>
+        <v>191324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.587123751183559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5189421955344015</v>
+        <v>0.5301761113619807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6376765657294302</v>
+        <v>0.6469827640759067</v>
       </c>
     </row>
     <row r="11">
@@ -2628,19 +2628,19 @@
         <v>12379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6625</v>
+        <v>6497</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19982</v>
+        <v>20262</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06801043995851964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03639735596720849</v>
+        <v>0.03569662272502814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1097845527037005</v>
+        <v>0.1113194725654603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -2649,19 +2649,19 @@
         <v>7377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3096</v>
+        <v>3320</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13734</v>
+        <v>14874</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06487901504261946</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0272278243279945</v>
+        <v>0.02919983309919382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1207847257064258</v>
+        <v>0.1308126092658051</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -2670,19 +2670,19 @@
         <v>19756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12151</v>
+        <v>12146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29834</v>
+        <v>30247</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06680640930072705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04108983653272907</v>
+        <v>0.04107197721837552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1008853384521719</v>
+        <v>0.1022845841168756</v>
       </c>
     </row>
     <row r="12">
@@ -2703,19 +2703,19 @@
         <v>8874</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4106</v>
+        <v>4138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14828</v>
+        <v>14257</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3406150032959206</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1576070937356008</v>
+        <v>0.1588170582146149</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5691266745651671</v>
+        <v>0.5471948757970205</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2724,19 +2724,19 @@
         <v>5280</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1992</v>
+        <v>1958</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10556</v>
+        <v>10273</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1834840281337574</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06922804653805399</v>
+        <v>0.06804148887253501</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3668624660939978</v>
+        <v>0.3569999839147123</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -2745,19 +2745,19 @@
         <v>14154</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8187</v>
+        <v>7957</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21783</v>
+        <v>21430</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2581511430816633</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.149321825770081</v>
+        <v>0.1451293904011816</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3972911978006022</v>
+        <v>0.3908552912462979</v>
       </c>
     </row>
     <row r="13">
@@ -2774,19 +2774,19 @@
         <v>5165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1938</v>
+        <v>1908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10804</v>
+        <v>9940</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1982430287104275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07437868448039142</v>
+        <v>0.07323884981122933</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4146868458835262</v>
+        <v>0.3815273887228685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>2822</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7734</v>
+        <v>8019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09808574815915769</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02971775210130355</v>
+        <v>0.03108039291263462</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2687733405476839</v>
+        <v>0.278696605820272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -2816,19 +2816,19 @@
         <v>7987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3551</v>
+        <v>3703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13962</v>
+        <v>14464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.145679516173856</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06476521547160308</v>
+        <v>0.06753560599609093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2546486665859975</v>
+        <v>0.2638086349197187</v>
       </c>
     </row>
     <row r="14">
@@ -2845,19 +2845,19 @@
         <v>12015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6792</v>
+        <v>7200</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17116</v>
+        <v>17623</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4611419679936519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2606711621112894</v>
+        <v>0.2763544631389642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.65693538477897</v>
+        <v>0.6764213970923224</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -2866,19 +2866,19 @@
         <v>19675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14325</v>
+        <v>14497</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24689</v>
+        <v>24115</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6837601405868261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4978173232235693</v>
+        <v>0.5038151663388686</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8579859779258835</v>
+        <v>0.8380606561923363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>28</v>
@@ -2887,19 +2887,19 @@
         <v>31690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23426</v>
+        <v>24384</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39221</v>
+        <v>39662</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5779741447616701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4272490709318111</v>
+        <v>0.4447326320040844</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7153267086179566</v>
+        <v>0.7233837217568949</v>
       </c>
     </row>
     <row r="15">
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5454</v>
+        <v>5060</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0346700831202589</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1895256308316323</v>
+        <v>0.1758486121612576</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5121</v>
+        <v>5425</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01819519598281065</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0934065445514707</v>
+        <v>0.09894731525930878</v>
       </c>
     </row>
     <row r="16">
@@ -2983,19 +2983,19 @@
         <v>70417</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56525</v>
+        <v>56903</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87023</v>
+        <v>86059</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2489330750228111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1998249225401675</v>
+        <v>0.2011599510458066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.307638855642505</v>
+        <v>0.3042302888640459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -3004,19 +3004,19 @@
         <v>71646</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2816889685887476</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -3025,19 +3025,19 @@
         <v>142063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122304</v>
+        <v>123394</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163050</v>
+        <v>163897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2644412027244071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2276609023219364</v>
+        <v>0.22969126128609</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3035081132935225</v>
+        <v>0.305084601822756</v>
       </c>
     </row>
     <row r="17">
@@ -3054,19 +3054,19 @@
         <v>23180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14942</v>
+        <v>14413</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34145</v>
+        <v>33384</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08194455380104658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05282045903080715</v>
+        <v>0.05095108711936979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.120705258668652</v>
+        <v>0.1180152223763956</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -3075,19 +3075,19 @@
         <v>21840</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08586949544261159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -3096,19 +3096,19 @@
         <v>45020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33484</v>
+        <v>32464</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59894</v>
+        <v>58159</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08380279943480332</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06232764269744039</v>
+        <v>0.06043041794293579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1114889849784431</v>
+        <v>0.1082600612678258</v>
       </c>
     </row>
     <row r="18">
@@ -3125,19 +3125,19 @@
         <v>166030</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>148850</v>
+        <v>150349</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181509</v>
+        <v>182243</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5869387835825461</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5262053752444833</v>
+        <v>0.5315045400827215</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6416566690483609</v>
+        <v>0.6442543426664673</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>131</v>
@@ -3146,19 +3146,19 @@
         <v>140550</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5525961285964219</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>289</v>
@@ -3167,19 +3167,19 @@
         <v>306579</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>283057</v>
+        <v>283603</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>329303</v>
+        <v>330485</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5706794109580571</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5268937224592972</v>
+        <v>0.5279103095801649</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6129777602424448</v>
+        <v>0.6151786902430502</v>
       </c>
     </row>
     <row r="19">
@@ -3196,19 +3196,19 @@
         <v>23248</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15488</v>
+        <v>15056</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33649</v>
+        <v>33732</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08218358759359616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05475226850371391</v>
+        <v>0.05322362364521764</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1189526984087123</v>
+        <v>0.1192482498006994</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -3217,19 +3217,19 @@
         <v>20308</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07984540737221883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -3238,19 +3238,19 @@
         <v>43556</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32847</v>
+        <v>31937</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58518</v>
+        <v>57859</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08107658688273252</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06114219030358154</v>
+        <v>0.05944796526871439</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1089272852534433</v>
+        <v>0.1077011240625908</v>
       </c>
     </row>
     <row r="20">
@@ -3510,19 +3510,19 @@
         <v>7295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3517</v>
+        <v>3391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13542</v>
+        <v>13042</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.15962660427419</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07695390306017068</v>
+        <v>0.07419908046664069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2963148117711732</v>
+        <v>0.285366905384586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3531,19 +3531,19 @@
         <v>13376</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7567</v>
+        <v>7082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21801</v>
+        <v>21413</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1793028072185013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1014293275970619</v>
+        <v>0.09492793970266279</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2922306117256728</v>
+        <v>0.287035286546896</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3552,19 +3552,19 @@
         <v>20672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13032</v>
+        <v>13143</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29474</v>
+        <v>30134</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.171827922861248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1083266647457242</v>
+        <v>0.1092505467788778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2449933797860125</v>
+        <v>0.2504831761123287</v>
       </c>
     </row>
     <row r="5">
@@ -3581,19 +3581,19 @@
         <v>9963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5143</v>
+        <v>5315</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15674</v>
+        <v>15759</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.217987296929516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1125307295476343</v>
+        <v>0.1162838020196513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3429509904376704</v>
+        <v>0.3448237358444998</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -3602,19 +3602,19 @@
         <v>10544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4603</v>
+        <v>5278</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17128</v>
+        <v>17640</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1413358786139483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06170329021286804</v>
+        <v>0.07074219864872393</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2295943352041585</v>
+        <v>0.2364560606493854</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -3623,19 +3623,19 @@
         <v>20507</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13327</v>
+        <v>13046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29814</v>
+        <v>29382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1704553428393346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1107764561109878</v>
+        <v>0.1084424117922055</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2478232554337387</v>
+        <v>0.2442305974819989</v>
       </c>
     </row>
     <row r="6">
@@ -3652,19 +3652,19 @@
         <v>22872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16603</v>
+        <v>16313</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29208</v>
+        <v>28888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5004529250224082</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3632760841563191</v>
+        <v>0.3569399512683885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6390900010886102</v>
+        <v>0.6320758766700927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -3673,19 +3673,19 @@
         <v>42815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33000</v>
+        <v>33616</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51054</v>
+        <v>51931</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5739099220822335</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4423463147458037</v>
+        <v>0.4506049142059156</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6843452013614418</v>
+        <v>0.6961120923215548</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>58</v>
@@ -3694,19 +3694,19 @@
         <v>65687</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>54897</v>
+        <v>54286</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76373</v>
+        <v>76681</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5460040014222702</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4563186662957164</v>
+        <v>0.4512355863533183</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6348279987517207</v>
+        <v>0.6373888468475167</v>
       </c>
     </row>
     <row r="7">
@@ -3723,19 +3723,19 @@
         <v>6356</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2735</v>
+        <v>2668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11703</v>
+        <v>10947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1390726793776325</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05983207625890098</v>
+        <v>0.05837162050132969</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.256068440399438</v>
+        <v>0.2395259303741424</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3744,19 +3744,19 @@
         <v>7867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3347</v>
+        <v>3244</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15173</v>
+        <v>14985</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.105451392085317</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0448668500942785</v>
+        <v>0.04348621861852181</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2033924423705712</v>
+        <v>0.2008666559731904</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -3765,19 +3765,19 @@
         <v>14223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8375</v>
+        <v>8016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22591</v>
+        <v>22828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1182239394697556</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06961327319646331</v>
+        <v>0.06663186378777726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1877841772008219</v>
+        <v>0.1897537667931616</v>
       </c>
     </row>
     <row r="8">
@@ -3798,19 +3798,19 @@
         <v>21541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13575</v>
+        <v>13544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30680</v>
+        <v>30816</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1777601895355695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1120258120886473</v>
+        <v>0.1117724126811817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2531801081010402</v>
+        <v>0.2543021232488473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -3819,19 +3819,19 @@
         <v>10581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5401</v>
+        <v>5256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17334</v>
+        <v>18105</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1249843312345383</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0637996404533567</v>
+        <v>0.06208567807709728</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2047562639508127</v>
+        <v>0.2138617080562105</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -3840,19 +3840,19 @@
         <v>32122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23256</v>
+        <v>22329</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44218</v>
+        <v>43639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1560543266372439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1129802755375812</v>
+        <v>0.1084793587489614</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2148215916071348</v>
+        <v>0.212009823844663</v>
       </c>
     </row>
     <row r="9">
@@ -3869,19 +3869,19 @@
         <v>12529</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6631</v>
+        <v>7369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20510</v>
+        <v>20839</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1033913834728638</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05472234919250347</v>
+        <v>0.06081007795023057</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1692540462319782</v>
+        <v>0.1719699707947922</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3890,19 +3890,19 @@
         <v>7069</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3011</v>
+        <v>2992</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13150</v>
+        <v>13509</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08350616390906296</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03557120521085747</v>
+        <v>0.03534316166643303</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1553337604927203</v>
+        <v>0.1595679080353031</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -3911,19 +3911,19 @@
         <v>19598</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12430</v>
+        <v>11973</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29641</v>
+        <v>28129</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09521291203819782</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06038538876493905</v>
+        <v>0.05816857459522623</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1440013058189955</v>
+        <v>0.1366579677738127</v>
       </c>
     </row>
     <row r="10">
@@ -3940,19 +3940,19 @@
         <v>77915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65965</v>
+        <v>66329</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88059</v>
+        <v>88445</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6429774042359008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5443619813862765</v>
+        <v>0.5473656928034429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7266837708297565</v>
+        <v>0.729873469750949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -3961,19 +3961,19 @@
         <v>61083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51386</v>
+        <v>52269</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68924</v>
+        <v>68587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7215377621587846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6069915852916654</v>
+        <v>0.6174197874701121</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8141519077924331</v>
+        <v>0.8101721624993118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -3982,19 +3982,19 @@
         <v>138999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124708</v>
+        <v>124702</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151564</v>
+        <v>153553</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6752880177097925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6058559799290504</v>
+        <v>0.6058267258747647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7363318905699106</v>
+        <v>0.7459946887009584</v>
       </c>
     </row>
     <row r="11">
@@ -4011,19 +4011,19 @@
         <v>10059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5002</v>
+        <v>5132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17500</v>
+        <v>18379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08301025154496906</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04127666210424066</v>
+        <v>0.04235386883483855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1444160285492767</v>
+        <v>0.1516699522864448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -4032,19 +4032,19 @@
         <v>6946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2558</v>
+        <v>2647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13884</v>
+        <v>13358</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08204351965613427</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0302158424430046</v>
+        <v>0.03126212698641045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1639996261423252</v>
+        <v>0.1577852709441981</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -4053,19 +4053,19 @@
         <v>17005</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10714</v>
+        <v>10638</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26822</v>
+        <v>26766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08261265024554922</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05205069479939481</v>
+        <v>0.05168306716601642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1303067812278045</v>
+        <v>0.130036733489917</v>
       </c>
     </row>
     <row r="12">
@@ -4086,19 +4086,19 @@
         <v>3552</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10444</v>
+        <v>9042</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1153292859671076</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02649174361905431</v>
+        <v>0.02689219484737101</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3391266309121497</v>
+        <v>0.2935972748157541</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -4107,19 +4107,19 @@
         <v>3146</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>957</v>
+        <v>980</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8174</v>
+        <v>8262</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1014668963448052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03085980586038754</v>
+        <v>0.03161498239032737</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.263618264318466</v>
+        <v>0.2664481539220253</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -4128,19 +4128,19 @@
         <v>6698</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2798</v>
+        <v>2614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13648</v>
+        <v>13634</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1083744279862964</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04527849324265638</v>
+        <v>0.0422889196524106</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2208356786680122</v>
+        <v>0.2205984154537166</v>
       </c>
     </row>
     <row r="13">
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6173</v>
+        <v>6018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06255216018702253</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2004476566113093</v>
+        <v>0.1954098319360256</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6124</v>
+        <v>5839</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06005117707099919</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1975076527851515</v>
+        <v>0.1883120161478014</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -4199,19 +4199,19 @@
         <v>3788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8588</v>
+        <v>9066</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06129739943809907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01532884673548158</v>
+        <v>0.01526599403234214</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1389589055402704</v>
+        <v>0.1466942822667066</v>
       </c>
     </row>
     <row r="14">
@@ -4228,19 +4228,19 @@
         <v>19368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13368</v>
+        <v>13454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24371</v>
+        <v>24725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6289156365801745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.434072622242281</v>
+        <v>0.4368782887458245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.791363489703365</v>
+        <v>0.8028790488330845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -4249,19 +4249,19 @@
         <v>19791</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14012</v>
+        <v>13387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24772</v>
+        <v>25251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6382810174296332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4518911699099192</v>
+        <v>0.431732997537406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7989135773460548</v>
+        <v>0.8143582534583048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -4270,19 +4270,19 @@
         <v>39159</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30024</v>
+        <v>30987</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46463</v>
+        <v>47047</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6336143137576938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4857985687377224</v>
+        <v>0.5013854513418563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7517912759887797</v>
+        <v>0.7612366264618845</v>
       </c>
     </row>
     <row r="15">
@@ -4299,19 +4299,19 @@
         <v>5950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1639</v>
+        <v>1678</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11937</v>
+        <v>12596</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1932029172656954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05320751336940772</v>
+        <v>0.05448706379281942</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3876295199789146</v>
+        <v>0.4090091632449264</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -4320,19 +4320,19 @@
         <v>6208</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2279</v>
+        <v>2190</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11843</v>
+        <v>12469</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2002009091545624</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07349943744515806</v>
+        <v>0.07062061964151893</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3819612003294758</v>
+        <v>0.4021249295481907</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -4341,19 +4341,19 @@
         <v>12158</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6198</v>
+        <v>6470</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20248</v>
+        <v>21511</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1967138588179107</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1002843010112201</v>
+        <v>0.1046848237728641</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3276158593602002</v>
+        <v>0.3480642244268445</v>
       </c>
     </row>
     <row r="16">
@@ -4374,19 +4374,19 @@
         <v>32388</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22760</v>
+        <v>22668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43755</v>
+        <v>43366</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1638416745901714</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1151367242847329</v>
+        <v>0.1146702771002174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2213431171092219</v>
+        <v>0.2193749089465225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -4395,19 +4395,19 @@
         <v>27103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1424495369794327</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -4416,19 +4416,19 @@
         <v>59491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47013</v>
+        <v>45716</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77366</v>
+        <v>75601</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1533499785768128</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1211841409566051</v>
+        <v>0.1178408273840953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1994251234443437</v>
+        <v>0.1948742857585229</v>
       </c>
     </row>
     <row r="17">
@@ -4445,19 +4445,19 @@
         <v>24418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16833</v>
+        <v>16347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35284</v>
+        <v>34635</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1235235494971884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08515505114127006</v>
+        <v>0.08269593252431939</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1784925172267408</v>
+        <v>0.1752077742593545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -4466,19 +4466,19 @@
         <v>19475</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1023582713288297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -4487,19 +4487,19 @@
         <v>43893</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33256</v>
+        <v>33130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56997</v>
+        <v>58575</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1131431158714659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08572325465389559</v>
+        <v>0.08539825537554067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1469197068299901</v>
+        <v>0.1509882173604864</v>
       </c>
     </row>
     <row r="18">
@@ -4516,19 +4516,19 @@
         <v>120156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>106042</v>
+        <v>105819</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133791</v>
+        <v>132762</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6078352104556503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5364370452519917</v>
+        <v>0.5353053266160632</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6768111552014527</v>
+        <v>0.6716040037814058</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>110</v>
@@ -4537,19 +4537,19 @@
         <v>123689</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6500861036753899</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>225</v>
@@ -4558,19 +4558,19 @@
         <v>243846</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>222910</v>
+        <v>224282</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>263210</v>
+        <v>263309</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6285570072213861</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5745923606082637</v>
+        <v>0.5781277232443915</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6784732570342372</v>
+        <v>0.6787288455800214</v>
       </c>
     </row>
     <row r="19">
@@ -4587,19 +4587,19 @@
         <v>22365</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14321</v>
+        <v>14518</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32025</v>
+        <v>33990</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1131386356109439</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07244610445857949</v>
+        <v>0.07344407209332224</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.16200734729061</v>
+        <v>0.1719469369686871</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4608,19 +4608,19 @@
         <v>21020</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.110477326165809</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -4629,19 +4629,19 @@
         <v>43385</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31465</v>
+        <v>31806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>57506</v>
+        <v>57705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1118334060820436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08110599798108747</v>
+        <v>0.08198613236729833</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1482316729635482</v>
+        <v>0.1487446226060614</v>
       </c>
     </row>
     <row r="20">
@@ -4901,19 +4901,19 @@
         <v>10927</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6325</v>
+        <v>6523</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16393</v>
+        <v>16045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2887389468269618</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.16713401012594</v>
+        <v>0.1723807068785946</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4331831083326366</v>
+        <v>0.4239865246093792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -4922,19 +4922,19 @@
         <v>17693</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13036</v>
+        <v>12929</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23579</v>
+        <v>23940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2093305896728397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1542285022426162</v>
+        <v>0.1529645936291035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2789704029270232</v>
+        <v>0.2832373595638145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -4943,19 +4943,19 @@
         <v>28620</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22143</v>
+        <v>21616</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36258</v>
+        <v>35980</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2338886490825431</v>
+        <v>0.2338886490825432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1809629046798004</v>
+        <v>0.1766492096465817</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2963135905267785</v>
+        <v>0.2940418054820621</v>
       </c>
     </row>
     <row r="5">
@@ -4972,19 +4972,19 @@
         <v>5917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2713</v>
+        <v>2884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10432</v>
+        <v>10594</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1563633502650874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07168507499637039</v>
+        <v>0.07620001576275333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2756579354771683</v>
+        <v>0.2799444578896831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -4993,19 +4993,19 @@
         <v>16042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11392</v>
+        <v>10904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22661</v>
+        <v>22176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1897955689547609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1347787884906596</v>
+        <v>0.1290145004818448</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2681092831942167</v>
+        <v>0.2623729229548789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -5014,19 +5014,19 @@
         <v>21959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16043</v>
+        <v>15927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29509</v>
+        <v>30291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1794562238001233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1311125413051463</v>
+        <v>0.1301626873788708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2411584163138769</v>
+        <v>0.2475497283431601</v>
       </c>
     </row>
     <row r="6">
@@ -5043,19 +5043,19 @@
         <v>10221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5728</v>
+        <v>6322</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16287</v>
+        <v>16102</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2700795247315739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1513718134839074</v>
+        <v>0.1670676061705478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4303829568434062</v>
+        <v>0.4254997388322065</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -5064,19 +5064,19 @@
         <v>37762</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30625</v>
+        <v>31480</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44399</v>
+        <v>45406</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4467732235685122</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3623338405403198</v>
+        <v>0.3724531482496003</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5253009317294843</v>
+        <v>0.5372210589874584</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -5085,19 +5085,19 @@
         <v>47982</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39372</v>
+        <v>39206</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57030</v>
+        <v>56335</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3921284165372345</v>
+        <v>0.3921284165372346</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3217594445209307</v>
+        <v>0.3204012743314503</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4660724525147628</v>
+        <v>0.4603871675116361</v>
       </c>
     </row>
     <row r="7">
@@ -5114,19 +5114,19 @@
         <v>10778</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6462</v>
+        <v>5888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16261</v>
+        <v>16346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2848181781763767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1707652688219115</v>
+        <v>0.1555969663910161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4296922954494591</v>
+        <v>0.431947773228206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -5135,19 +5135,19 @@
         <v>13025</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8632</v>
+        <v>7926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19385</v>
+        <v>18496</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1541006178038872</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1021277275933341</v>
+        <v>0.09377000764767206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2293524037473867</v>
+        <v>0.218830786713521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -5156,19 +5156,19 @@
         <v>23803</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17501</v>
+        <v>17510</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32531</v>
+        <v>32012</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1945267105800988</v>
+        <v>0.1945267105800989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1430279450063346</v>
+        <v>0.1430988890129184</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2658507755998445</v>
+        <v>0.261609660910164</v>
       </c>
     </row>
     <row r="8">
@@ -5189,19 +5189,19 @@
         <v>13448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7690</v>
+        <v>7788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21781</v>
+        <v>21860</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09591055168744214</v>
+        <v>0.0959105516874421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05484549658134599</v>
+        <v>0.0555455140084768</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1553380470755955</v>
+        <v>0.1558966943983521</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -5210,19 +5210,19 @@
         <v>19167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12929</v>
+        <v>12712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27859</v>
+        <v>29043</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.172633137072741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1164456454559702</v>
+        <v>0.1144933699762086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2509183389639207</v>
+        <v>0.2615834718451334</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -5231,19 +5231,19 @@
         <v>32615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23707</v>
+        <v>24126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44079</v>
+        <v>45909</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1298148879266774</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09435735806646209</v>
+        <v>0.09602661041741369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1754442752626028</v>
+        <v>0.18272708492316</v>
       </c>
     </row>
     <row r="9">
@@ -5260,19 +5260,19 @@
         <v>10961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5059</v>
+        <v>5299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21265</v>
+        <v>20875</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07817391437731853</v>
+        <v>0.07817391437731852</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03607694560597167</v>
+        <v>0.0377931457589053</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1516567043588322</v>
+        <v>0.1488752818664179</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -5281,19 +5281,19 @@
         <v>16518</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10764</v>
+        <v>10339</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24695</v>
+        <v>24522</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1487738412173766</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09695239853762171</v>
+        <v>0.09311911072213444</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2224189198652317</v>
+        <v>0.2208661035794207</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -5302,19 +5302,19 @@
         <v>27479</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18828</v>
+        <v>18748</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40512</v>
+        <v>39450</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1093725978683652</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07493754492184625</v>
+        <v>0.07461886413454076</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1612445682006597</v>
+        <v>0.1570191401078924</v>
       </c>
     </row>
     <row r="10">
@@ -5331,19 +5331,19 @@
         <v>98552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86069</v>
+        <v>85911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108955</v>
+        <v>108220</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7028462260506922</v>
+        <v>0.7028462260506921</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.613825119455278</v>
+        <v>0.6126992584579987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7770395248874781</v>
+        <v>0.7718003095144815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -5352,19 +5352,19 @@
         <v>63357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52885</v>
+        <v>52257</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73365</v>
+        <v>73041</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5706433141226647</v>
+        <v>0.5706433141226646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4763267983182565</v>
+        <v>0.4706702612449071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6607817639557508</v>
+        <v>0.6578659981435002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>167</v>
@@ -5373,19 +5373,19 @@
         <v>161908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145304</v>
+        <v>145410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177205</v>
+        <v>177646</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6444246810088495</v>
+        <v>0.6444246810088494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5783372492687533</v>
+        <v>0.5787596454107478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7053086103945879</v>
+        <v>0.7070625915199484</v>
       </c>
     </row>
     <row r="11">
@@ -5402,19 +5402,19 @@
         <v>17257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10476</v>
+        <v>10425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25493</v>
+        <v>25566</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1230693078845471</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07470984895141788</v>
+        <v>0.07435024473687457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1818129567561812</v>
+        <v>0.182328202942405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -5423,19 +5423,19 @@
         <v>11985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6630</v>
+        <v>7023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23408</v>
+        <v>23321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1079497075872178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05971138783360767</v>
+        <v>0.06325852076749248</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2108314674428758</v>
+        <v>0.2100449910211086</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -5444,19 +5444,19 @@
         <v>29242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20616</v>
+        <v>20761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44974</v>
+        <v>42350</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1163878331961078</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08205614067084294</v>
+        <v>0.08263156833271149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1790047586034827</v>
+        <v>0.1685615694055977</v>
       </c>
     </row>
     <row r="12">
@@ -5477,19 +5477,19 @@
         <v>8192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3005</v>
+        <v>3409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17181</v>
+        <v>18855</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.196607307948517</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0721170352353203</v>
+        <v>0.08181138465958408</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4123120188993937</v>
+        <v>0.4524834479737761</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -5498,19 +5498,19 @@
         <v>5372</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2749</v>
+        <v>2595</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8989</v>
+        <v>9102</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1524484349299184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07801649614120167</v>
+        <v>0.07362708069057955</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2550827345725807</v>
+        <v>0.2582842026361925</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -5519,19 +5519,19 @@
         <v>13565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7924</v>
+        <v>8207</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23563</v>
+        <v>24261</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1763736250166463</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1030317170986317</v>
+        <v>0.1067147669976727</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3063830910243747</v>
+        <v>0.3154554413103344</v>
       </c>
     </row>
     <row r="13">
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7164</v>
+        <v>6973</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0472287233813567</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1719317198297016</v>
+        <v>0.1673395625997681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5569,19 +5569,19 @@
         <v>9695</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5664</v>
+        <v>5825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15021</v>
+        <v>14648</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2751142589962493</v>
+        <v>0.2751142589962494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1607279704140235</v>
+        <v>0.1652980438568537</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4262577835883153</v>
+        <v>0.4156840126242594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -5590,19 +5590,19 @@
         <v>11663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6717</v>
+        <v>6491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18505</v>
+        <v>18239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1516463263951213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08733930020243359</v>
+        <v>0.08440114583748164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2406079593907949</v>
+        <v>0.2371497176151671</v>
       </c>
     </row>
     <row r="14">
@@ -5619,19 +5619,19 @@
         <v>23543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15040</v>
+        <v>14124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31185</v>
+        <v>31498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5650105717923104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3609340914775156</v>
+        <v>0.3389479599439639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7483872546600964</v>
+        <v>0.7559064449121372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -5640,19 +5640,19 @@
         <v>18269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13295</v>
+        <v>13330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23403</v>
+        <v>22666</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.518428468680365</v>
+        <v>0.5184284686803649</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.377291182872927</v>
+        <v>0.3782827701578502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6641306008052694</v>
+        <v>0.6432186297448824</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -5661,19 +5661,19 @@
         <v>41812</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31169</v>
+        <v>32354</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50254</v>
+        <v>51026</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5436665600402476</v>
+        <v>0.5436665600402477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4052802144258384</v>
+        <v>0.4206831797169741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.653425507992961</v>
+        <v>0.6634698437967689</v>
       </c>
     </row>
     <row r="15">
@@ -5690,19 +5690,19 @@
         <v>7965</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1926</v>
+        <v>2608</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18776</v>
+        <v>20195</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1911533968778159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04621162588540104</v>
+        <v>0.06258864161369586</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4506063312389865</v>
+        <v>0.4846417116351815</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -5711,19 +5711,19 @@
         <v>1903</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5855</v>
+        <v>5123</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05400883739346748</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0142423884554069</v>
+        <v>0.01554318937440015</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1661400705823268</v>
+        <v>0.1453792647013378</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -5732,19 +5732,19 @@
         <v>9868</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3982</v>
+        <v>3686</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22571</v>
+        <v>21535</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1283134885479847</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05177453172734228</v>
+        <v>0.04792971383543092</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2934863583039696</v>
+        <v>0.2800133916864718</v>
       </c>
     </row>
     <row r="16">
@@ -5765,19 +5765,19 @@
         <v>32567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23442</v>
+        <v>22694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44863</v>
+        <v>45913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1482159419987124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1066874022859318</v>
+        <v>0.1032810379092722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2041726108856502</v>
+        <v>0.2089536129373261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -5786,19 +5786,19 @@
         <v>42232</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32285</v>
+        <v>33006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52015</v>
+        <v>52482</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1829907678380064</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1398920294914308</v>
+        <v>0.1430148250531585</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2253797263315457</v>
+        <v>0.2274046196752651</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>111</v>
@@ -5807,19 +5807,19 @@
         <v>74799</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60159</v>
+        <v>61653</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89674</v>
+        <v>89951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1660301628882242</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.133532454859509</v>
+        <v>0.1368500003792925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1990475781707949</v>
+        <v>0.1996618019230997</v>
       </c>
     </row>
     <row r="17">
@@ -5836,19 +5836,19 @@
         <v>18847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11321</v>
+        <v>11756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29874</v>
+        <v>29850</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08577166564414765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05152098843901824</v>
+        <v>0.05350342290182506</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1359564947834302</v>
+        <v>0.1358490638655183</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -5857,19 +5857,19 @@
         <v>42255</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32706</v>
+        <v>33960</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53650</v>
+        <v>54656</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1830883131499845</v>
+        <v>0.1830883131499846</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1417161966369397</v>
+        <v>0.1471472527812153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2324660989397866</v>
+        <v>0.236825458074459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -5878,19 +5878,19 @@
         <v>61101</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49410</v>
+        <v>47879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77644</v>
+        <v>75371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1356244028773224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1096735491476106</v>
+        <v>0.1062762310467923</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1723449369730673</v>
+        <v>0.1672990450616114</v>
       </c>
     </row>
     <row r="18">
@@ -5907,19 +5907,19 @@
         <v>132315</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>116632</v>
+        <v>115060</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>150157</v>
+        <v>148133</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6021748710883917</v>
+        <v>0.6021748710883918</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5307978868797602</v>
+        <v>0.523644256661447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6833754209335489</v>
+        <v>0.6741633147306895</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>180</v>
@@ -5928,19 +5928,19 @@
         <v>119388</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106703</v>
+        <v>106330</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>134211</v>
+        <v>131272</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5173057375085971</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4623399512640122</v>
+        <v>0.4607271429364329</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5815354399503361</v>
+        <v>0.5687994479255647</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>296</v>
@@ -5949,19 +5949,19 @@
         <v>251703</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>230120</v>
+        <v>231400</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>272503</v>
+        <v>272277</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5586986650743392</v>
+        <v>0.5586986650743391</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5107908071046313</v>
+        <v>0.5136323007922868</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6048670929793144</v>
+        <v>0.6043646392753012</v>
       </c>
     </row>
     <row r="19">
@@ -5978,19 +5978,19 @@
         <v>36000</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24552</v>
+        <v>24658</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50360</v>
+        <v>50043</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1638375212687481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1117366232818305</v>
+        <v>0.112218773425347</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.229193680515544</v>
+        <v>0.2277500133091173</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -5999,19 +5999,19 @@
         <v>26913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19302</v>
+        <v>19366</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39852</v>
+        <v>39672</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.116615181503412</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.083635415255917</v>
+        <v>0.08391445242336873</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1726758195809728</v>
+        <v>0.1718976683766195</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -6020,19 +6020,19 @@
         <v>62913</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48942</v>
+        <v>49580</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81148</v>
+        <v>81044</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1396467691601142</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1086344385204172</v>
+        <v>0.1100507489128892</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1801211938190841</v>
+        <v>0.179890905442893</v>
       </c>
     </row>
     <row r="20">
